--- a/test/A2.xlsx
+++ b/test/A2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -1088,7 +1088,7 @@
       <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -3143,11 +3143,11 @@
   </sheetPr>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H84" activeCellId="0" sqref="H84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D84" activeCellId="0" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
@@ -8539,11 +8539,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8558,7 +8558,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8586,7 +8586,7 @@
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
